--- a/data/trans_dic/P16B11-Habitat-trans_dic.xlsx
+++ b/data/trans_dic/P16B11-Habitat-trans_dic.xlsx
@@ -572,7 +572,7 @@
       </c>
       <c r="E2" s="3" t="inlineStr">
         <is>
-          <t>2015</t>
+          <t>2016</t>
         </is>
       </c>
       <c r="F2" s="3" t="inlineStr">
@@ -587,7 +587,7 @@
       </c>
       <c r="H2" s="3" t="inlineStr">
         <is>
-          <t>2015</t>
+          <t>2016</t>
         </is>
       </c>
       <c r="I2" s="3" t="inlineStr">
@@ -602,7 +602,7 @@
       </c>
       <c r="K2" s="3" t="inlineStr">
         <is>
-          <t>2015</t>
+          <t>2016</t>
         </is>
       </c>
     </row>
@@ -622,7 +622,7 @@
     <row r="4">
       <c r="A4" s="1" t="inlineStr">
         <is>
-          <t>Menos de 2</t>
+          <t>&lt;2.000hab</t>
         </is>
       </c>
       <c r="B4" s="3" t="inlineStr">
@@ -732,7 +732,7 @@
     <row r="6">
       <c r="A6" s="1" t="inlineStr">
         <is>
-          <t>2/10</t>
+          <t>2-10.000 hab</t>
         </is>
       </c>
       <c r="B6" s="3" t="inlineStr">
@@ -842,7 +842,7 @@
     <row r="8">
       <c r="A8" s="1" t="inlineStr">
         <is>
-          <t>10/50</t>
+          <t>10-50.000 hab</t>
         </is>
       </c>
       <c r="B8" s="3" t="inlineStr">
@@ -952,7 +952,7 @@
     <row r="10">
       <c r="A10" s="1" t="inlineStr">
         <is>
-          <t>mas de 50</t>
+          <t>&gt;50.000hab</t>
         </is>
       </c>
       <c r="B10" s="3" t="inlineStr">

--- a/data/trans_dic/P16B11-Habitat-trans_dic.xlsx
+++ b/data/trans_dic/P16B11-Habitat-trans_dic.xlsx
@@ -7,7 +7,7 @@
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Transversal dicotómica" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Variables dicotomizadas" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -632,47 +632,47 @@
       </c>
       <c r="C4" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>94,37%</t>
         </is>
       </c>
       <c r="D4" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>100,0%</t>
         </is>
       </c>
       <c r="E4" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>100,0%</t>
         </is>
       </c>
       <c r="F4" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>96,39%</t>
         </is>
       </c>
       <c r="G4" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>100,0%</t>
         </is>
       </c>
       <c r="H4" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>100,0%</t>
         </is>
       </c>
       <c r="I4" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>95,44%</t>
         </is>
       </c>
       <c r="J4" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>100,0%</t>
         </is>
       </c>
       <c r="K4" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>100,0%</t>
         </is>
       </c>
     </row>
@@ -685,47 +685,47 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>0; 9,05</t>
+          <t>77,65; 100,0</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>0; 11,15</t>
+          <t>88,85; 100</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>0; 7,61</t>
+          <t>92,39; 100</t>
         </is>
       </c>
       <c r="F5" s="2" t="inlineStr">
         <is>
-          <t>0; 6,57</t>
+          <t>81,94; 100,0</t>
         </is>
       </c>
       <c r="G5" s="2" t="inlineStr">
         <is>
-          <t>0; 10,53</t>
+          <t>89,47; 100</t>
         </is>
       </c>
       <c r="H5" s="2" t="inlineStr">
         <is>
-          <t>0; 11,15</t>
+          <t>88,85; 100</t>
         </is>
       </c>
       <c r="I5" s="2" t="inlineStr">
         <is>
-          <t>0; 3,9</t>
+          <t>84,78; 100,0</t>
         </is>
       </c>
       <c r="J5" s="2" t="inlineStr">
         <is>
-          <t>0; 5,61</t>
+          <t>94,39; 100</t>
         </is>
       </c>
       <c r="K5" s="2" t="inlineStr">
         <is>
-          <t>0; 4,66</t>
+          <t>95,34; 100</t>
         </is>
       </c>
     </row>
@@ -742,47 +742,47 @@
       </c>
       <c r="C6" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>98,85%</t>
         </is>
       </c>
       <c r="D6" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>99,18%</t>
         </is>
       </c>
       <c r="E6" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>100,0%</t>
         </is>
       </c>
       <c r="F6" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>97,72%</t>
         </is>
       </c>
       <c r="G6" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>100,0%</t>
         </is>
       </c>
       <c r="H6" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>100,0%</t>
         </is>
       </c>
       <c r="I6" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>98,24%</t>
         </is>
       </c>
       <c r="J6" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>99,63%</t>
         </is>
       </c>
       <c r="K6" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>100,0%</t>
         </is>
       </c>
     </row>
@@ -795,47 +795,47 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>0; 2,39</t>
+          <t>93,34; 100,0</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>0; 1,76</t>
+          <t>95,22; 100,0</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>0; 2,34</t>
+          <t>97,66; 100</t>
         </is>
       </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
-          <t>0; 2,15</t>
+          <t>92,91; 100,0</t>
         </is>
       </c>
       <c r="G7" s="2" t="inlineStr">
         <is>
-          <t>0; 1,39</t>
+          <t>98,61; 100</t>
         </is>
       </c>
       <c r="H7" s="2" t="inlineStr">
         <is>
-          <t>0; 1,83</t>
+          <t>98,17; 100</t>
         </is>
       </c>
       <c r="I7" s="2" t="inlineStr">
         <is>
-          <t>0; 1,14</t>
+          <t>95,23; 99,46</t>
         </is>
       </c>
       <c r="J7" s="2" t="inlineStr">
         <is>
-          <t>0; 0,78</t>
+          <t>97,93; 100,0</t>
         </is>
       </c>
       <c r="K7" s="2" t="inlineStr">
         <is>
-          <t>0; 1,03</t>
+          <t>98,97; 100</t>
         </is>
       </c>
     </row>
@@ -852,47 +852,47 @@
       </c>
       <c r="C8" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>97,47%</t>
         </is>
       </c>
       <c r="D8" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>100,0%</t>
         </is>
       </c>
       <c r="E8" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>100,0%</t>
         </is>
       </c>
       <c r="F8" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>98,12%</t>
         </is>
       </c>
       <c r="G8" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>100,0%</t>
         </is>
       </c>
       <c r="H8" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>99,43%</t>
         </is>
       </c>
       <c r="I8" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>97,85%</t>
         </is>
       </c>
       <c r="J8" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>100,0%</t>
         </is>
       </c>
       <c r="K8" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>99,69%</t>
         </is>
       </c>
     </row>
@@ -905,47 +905,47 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>0; 1,61</t>
+          <t>93,16; 99,21</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>0; 1,39</t>
+          <t>98,61; 100</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>0; 1,36</t>
+          <t>98,64; 100</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>0; 1,2</t>
+          <t>94,99; 99,47</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
         <is>
-          <t>0; 1,09</t>
+          <t>98,91; 100</t>
         </is>
       </c>
       <c r="H9" s="2" t="inlineStr">
         <is>
-          <t>0; 1,35</t>
+          <t>97,65; 100,0</t>
         </is>
       </c>
       <c r="I9" s="2" t="inlineStr">
         <is>
-          <t>0; 0,69</t>
+          <t>95,33; 99,08</t>
         </is>
       </c>
       <c r="J9" s="2" t="inlineStr">
         <is>
-          <t>0; 0,61</t>
+          <t>99,39; 100</t>
         </is>
       </c>
       <c r="K9" s="2" t="inlineStr">
         <is>
-          <t>0; 0,68</t>
+          <t>98,45; 100,0</t>
         </is>
       </c>
     </row>
@@ -962,47 +962,47 @@
       </c>
       <c r="C10" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>100,0%</t>
         </is>
       </c>
       <c r="D10" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>100,0%</t>
         </is>
       </c>
       <c r="E10" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>100,0%</t>
         </is>
       </c>
       <c r="F10" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>98,41%</t>
         </is>
       </c>
       <c r="G10" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>100,0%</t>
         </is>
       </c>
       <c r="H10" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>99,22%</t>
         </is>
       </c>
       <c r="I10" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>99,09%</t>
         </is>
       </c>
       <c r="J10" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>100,0%</t>
         </is>
       </c>
       <c r="K10" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>99,56%</t>
         </is>
       </c>
     </row>
@@ -1015,47 +1015,47 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>0; 2,28</t>
+          <t>97,72; 100</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>0; 1,92</t>
+          <t>98,08; 100</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>0; 1,86</t>
+          <t>98,14; 100</t>
         </is>
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>0; 1,65</t>
+          <t>95,13; 100,0</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
         <is>
-          <t>0; 1,51</t>
+          <t>98,49; 100</t>
         </is>
       </c>
       <c r="H11" s="2" t="inlineStr">
         <is>
-          <t>0; 1,61</t>
+          <t>96,77; 100,0</t>
         </is>
       </c>
       <c r="I11" s="2" t="inlineStr">
         <is>
-          <t>0; 0,96</t>
+          <t>96,77; 100,0</t>
         </is>
       </c>
       <c r="J11" s="2" t="inlineStr">
         <is>
-          <t>0; 0,85</t>
+          <t>99,15; 100</t>
         </is>
       </c>
       <c r="K11" s="2" t="inlineStr">
         <is>
-          <t>0; 0,87</t>
+          <t>97,59; 100,0</t>
         </is>
       </c>
     </row>
@@ -1072,47 +1072,47 @@
       </c>
       <c r="C12" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>96,03%</t>
         </is>
       </c>
       <c r="D12" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>100,0%</t>
         </is>
       </c>
       <c r="E12" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>100,0%</t>
         </is>
       </c>
       <c r="F12" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>98,17%</t>
         </is>
       </c>
       <c r="G12" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>98,76%</t>
         </is>
       </c>
       <c r="H12" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>100,0%</t>
         </is>
       </c>
       <c r="I12" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>97,32%</t>
         </is>
       </c>
       <c r="J12" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>99,27%</t>
         </is>
       </c>
       <c r="K12" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>100,0%</t>
         </is>
       </c>
     </row>
@@ -1125,47 +1125,47 @@
       </c>
       <c r="C13" s="2" t="inlineStr">
         <is>
-          <t>0; 1,6</t>
+          <t>91,38; 98,45</t>
         </is>
       </c>
       <c r="D13" s="2" t="inlineStr">
         <is>
-          <t>0; 1,21</t>
+          <t>98,79; 100</t>
         </is>
       </c>
       <c r="E13" s="2" t="inlineStr">
         <is>
-          <t>0; 1,29</t>
+          <t>98,71; 100</t>
         </is>
       </c>
       <c r="F13" s="2" t="inlineStr">
         <is>
-          <t>0; 1,22</t>
+          <t>95,07; 99,4</t>
         </is>
       </c>
       <c r="G13" s="2" t="inlineStr">
         <is>
-          <t>0; 0,83</t>
+          <t>96,34; 99,6</t>
         </is>
       </c>
       <c r="H13" s="2" t="inlineStr">
         <is>
-          <t>0; 1,3</t>
+          <t>98,7; 100</t>
         </is>
       </c>
       <c r="I13" s="2" t="inlineStr">
         <is>
-          <t>0; 0,7</t>
+          <t>95,07; 98,92</t>
         </is>
       </c>
       <c r="J13" s="2" t="inlineStr">
         <is>
-          <t>0; 0,49</t>
+          <t>98,04; 99,96</t>
         </is>
       </c>
       <c r="K13" s="2" t="inlineStr">
         <is>
-          <t>0; 0,65</t>
+          <t>99,35; 100</t>
         </is>
       </c>
     </row>
@@ -1182,47 +1182,47 @@
       </c>
       <c r="C14" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>97,73%</t>
         </is>
       </c>
       <c r="D14" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>99,83%</t>
         </is>
       </c>
       <c r="E14" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>100,0%</t>
         </is>
       </c>
       <c r="F14" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>98,06%</t>
         </is>
       </c>
       <c r="G14" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>99,59%</t>
         </is>
       </c>
       <c r="H14" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>99,67%</t>
         </is>
       </c>
       <c r="I14" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>97,92%</t>
         </is>
       </c>
       <c r="J14" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>99,69%</t>
         </is>
       </c>
       <c r="K14" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>99,82%</t>
         </is>
       </c>
     </row>
@@ -1235,47 +1235,47 @@
       </c>
       <c r="C15" s="2" t="inlineStr">
         <is>
-          <t>0; 0,46</t>
+          <t>95,81; 98,85</t>
         </is>
       </c>
       <c r="D15" s="2" t="inlineStr">
         <is>
-          <t>0; 0,37</t>
+          <t>99,2; 100,0</t>
         </is>
       </c>
       <c r="E15" s="2" t="inlineStr">
         <is>
-          <t>0; 0,39</t>
+          <t>99,61; 100</t>
         </is>
       </c>
       <c r="F15" s="2" t="inlineStr">
         <is>
-          <t>0; 0,35</t>
+          <t>96,77; 98,99</t>
         </is>
       </c>
       <c r="G15" s="2" t="inlineStr">
         <is>
-          <t>0; 0,28</t>
+          <t>98,9; 99,87</t>
         </is>
       </c>
       <c r="H15" s="2" t="inlineStr">
         <is>
-          <t>0; 0,36</t>
+          <t>98,96; 100,0</t>
         </is>
       </c>
       <c r="I15" s="2" t="inlineStr">
         <is>
-          <t>0; 0,2</t>
+          <t>96,8; 98,64</t>
         </is>
       </c>
       <c r="J15" s="2" t="inlineStr">
         <is>
-          <t>0; 0,16</t>
+          <t>99,16; 99,92</t>
         </is>
       </c>
       <c r="K15" s="2" t="inlineStr">
         <is>
-          <t>0; 0,19</t>
+          <t>99,41; 100,0</t>
         </is>
       </c>
     </row>

--- a/data/trans_dic/P16B11-Habitat-trans_dic.xlsx
+++ b/data/trans_dic/P16B11-Habitat-trans_dic.xlsx
@@ -504,7 +504,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:K16"/>
+  <dimension ref="A1:K14"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
@@ -622,7 +622,7 @@
     <row r="4">
       <c r="A4" s="1" t="inlineStr">
         <is>
-          <t>&lt;2.000hab</t>
+          <t>&lt;10.000 hab</t>
         </is>
       </c>
       <c r="B4" s="3" t="inlineStr">
@@ -632,12 +632,12 @@
       </c>
       <c r="C4" s="2" t="inlineStr">
         <is>
-          <t>94,37%</t>
+          <t>97,89%</t>
         </is>
       </c>
       <c r="D4" s="2" t="inlineStr">
         <is>
-          <t>100,0%</t>
+          <t>99,27%</t>
         </is>
       </c>
       <c r="E4" s="2" t="inlineStr">
@@ -647,7 +647,7 @@
       </c>
       <c r="F4" s="2" t="inlineStr">
         <is>
-          <t>96,39%</t>
+          <t>97,44%</t>
         </is>
       </c>
       <c r="G4" s="2" t="inlineStr">
@@ -662,12 +662,12 @@
       </c>
       <c r="I4" s="2" t="inlineStr">
         <is>
-          <t>95,44%</t>
+          <t>97,65%</t>
         </is>
       </c>
       <c r="J4" s="2" t="inlineStr">
         <is>
-          <t>100,0%</t>
+          <t>99,67%</t>
         </is>
       </c>
       <c r="K4" s="2" t="inlineStr">
@@ -685,54 +685,54 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>77,65; 100,0</t>
+          <t>92,63; 100,0</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>88,85; 100</t>
+          <t>96,9; 100,0</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>92,39; 100</t>
+          <t>98,19; 100</t>
         </is>
       </c>
       <c r="F5" s="2" t="inlineStr">
         <is>
-          <t>81,94; 100,0</t>
+          <t>93,19; 99,24</t>
         </is>
       </c>
       <c r="G5" s="2" t="inlineStr">
         <is>
-          <t>89,47; 100</t>
+          <t>98,76; 100</t>
         </is>
       </c>
       <c r="H5" s="2" t="inlineStr">
         <is>
-          <t>88,85; 100</t>
+          <t>98,42; 100</t>
         </is>
       </c>
       <c r="I5" s="2" t="inlineStr">
         <is>
-          <t>84,78; 100,0</t>
+          <t>94,47; 99,14</t>
         </is>
       </c>
       <c r="J5" s="2" t="inlineStr">
         <is>
-          <t>94,39; 100</t>
+          <t>98,34; 100,0</t>
         </is>
       </c>
       <c r="K5" s="2" t="inlineStr">
         <is>
-          <t>95,34; 100</t>
+          <t>99,15; 100</t>
         </is>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="1" t="inlineStr">
         <is>
-          <t>2-10.000 hab</t>
+          <t>10-50.000 hab</t>
         </is>
       </c>
       <c r="B6" s="3" t="inlineStr">
@@ -742,12 +742,12 @@
       </c>
       <c r="C6" s="2" t="inlineStr">
         <is>
-          <t>98,85%</t>
+          <t>97,47%</t>
         </is>
       </c>
       <c r="D6" s="2" t="inlineStr">
         <is>
-          <t>99,18%</t>
+          <t>100,0%</t>
         </is>
       </c>
       <c r="E6" s="2" t="inlineStr">
@@ -757,7 +757,7 @@
       </c>
       <c r="F6" s="2" t="inlineStr">
         <is>
-          <t>97,72%</t>
+          <t>98,12%</t>
         </is>
       </c>
       <c r="G6" s="2" t="inlineStr">
@@ -767,22 +767,22 @@
       </c>
       <c r="H6" s="2" t="inlineStr">
         <is>
-          <t>100,0%</t>
+          <t>99,43%</t>
         </is>
       </c>
       <c r="I6" s="2" t="inlineStr">
         <is>
-          <t>98,24%</t>
+          <t>97,85%</t>
         </is>
       </c>
       <c r="J6" s="2" t="inlineStr">
         <is>
-          <t>99,63%</t>
+          <t>100,0%</t>
         </is>
       </c>
       <c r="K6" s="2" t="inlineStr">
         <is>
-          <t>100,0%</t>
+          <t>99,69%</t>
         </is>
       </c>
     </row>
@@ -795,54 +795,54 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>93,34; 100,0</t>
+          <t>93,16; 99,21</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>95,22; 100,0</t>
+          <t>98,61; 100</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>97,66; 100</t>
+          <t>98,64; 100</t>
         </is>
       </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
-          <t>92,91; 100,0</t>
+          <t>94,99; 99,47</t>
         </is>
       </c>
       <c r="G7" s="2" t="inlineStr">
         <is>
-          <t>98,61; 100</t>
+          <t>98,91; 100</t>
         </is>
       </c>
       <c r="H7" s="2" t="inlineStr">
         <is>
-          <t>98,17; 100</t>
+          <t>97,65; 100,0</t>
         </is>
       </c>
       <c r="I7" s="2" t="inlineStr">
         <is>
-          <t>95,23; 99,46</t>
+          <t>95,33; 99,08</t>
         </is>
       </c>
       <c r="J7" s="2" t="inlineStr">
         <is>
-          <t>97,93; 100,0</t>
+          <t>99,39; 100</t>
         </is>
       </c>
       <c r="K7" s="2" t="inlineStr">
         <is>
-          <t>98,97; 100</t>
+          <t>98,45; 100,0</t>
         </is>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="1" t="inlineStr">
         <is>
-          <t>10-50.000 hab</t>
+          <t>&gt;50.000 hab</t>
         </is>
       </c>
       <c r="B8" s="3" t="inlineStr">
@@ -852,7 +852,7 @@
       </c>
       <c r="C8" s="2" t="inlineStr">
         <is>
-          <t>97,47%</t>
+          <t>100,0%</t>
         </is>
       </c>
       <c r="D8" s="2" t="inlineStr">
@@ -867,7 +867,7 @@
       </c>
       <c r="F8" s="2" t="inlineStr">
         <is>
-          <t>98,12%</t>
+          <t>98,41%</t>
         </is>
       </c>
       <c r="G8" s="2" t="inlineStr">
@@ -877,12 +877,12 @@
       </c>
       <c r="H8" s="2" t="inlineStr">
         <is>
-          <t>99,43%</t>
+          <t>99,22%</t>
         </is>
       </c>
       <c r="I8" s="2" t="inlineStr">
         <is>
-          <t>97,85%</t>
+          <t>99,09%</t>
         </is>
       </c>
       <c r="J8" s="2" t="inlineStr">
@@ -892,7 +892,7 @@
       </c>
       <c r="K8" s="2" t="inlineStr">
         <is>
-          <t>99,69%</t>
+          <t>99,56%</t>
         </is>
       </c>
     </row>
@@ -905,54 +905,54 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>93,16; 99,21</t>
+          <t>97,72; 100</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>98,61; 100</t>
+          <t>98,08; 100</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>98,64; 100</t>
+          <t>98,14; 100</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>94,99; 99,47</t>
+          <t>95,13; 100,0</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
         <is>
-          <t>98,91; 100</t>
+          <t>98,49; 100</t>
         </is>
       </c>
       <c r="H9" s="2" t="inlineStr">
         <is>
-          <t>97,65; 100,0</t>
+          <t>96,77; 100,0</t>
         </is>
       </c>
       <c r="I9" s="2" t="inlineStr">
         <is>
-          <t>95,33; 99,08</t>
+          <t>96,77; 100,0</t>
         </is>
       </c>
       <c r="J9" s="2" t="inlineStr">
         <is>
-          <t>99,39; 100</t>
+          <t>99,15; 100</t>
         </is>
       </c>
       <c r="K9" s="2" t="inlineStr">
         <is>
-          <t>98,45; 100,0</t>
+          <t>97,59; 100,0</t>
         </is>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="1" t="inlineStr">
         <is>
-          <t>&gt;50.000hab</t>
+          <t>Capitales</t>
         </is>
       </c>
       <c r="B10" s="3" t="inlineStr">
@@ -962,7 +962,7 @@
       </c>
       <c r="C10" s="2" t="inlineStr">
         <is>
-          <t>100,0%</t>
+          <t>96,03%</t>
         </is>
       </c>
       <c r="D10" s="2" t="inlineStr">
@@ -977,32 +977,32 @@
       </c>
       <c r="F10" s="2" t="inlineStr">
         <is>
-          <t>98,41%</t>
+          <t>98,17%</t>
         </is>
       </c>
       <c r="G10" s="2" t="inlineStr">
         <is>
-          <t>100,0%</t>
+          <t>98,76%</t>
         </is>
       </c>
       <c r="H10" s="2" t="inlineStr">
         <is>
-          <t>99,22%</t>
+          <t>100,0%</t>
         </is>
       </c>
       <c r="I10" s="2" t="inlineStr">
         <is>
-          <t>99,09%</t>
+          <t>97,32%</t>
         </is>
       </c>
       <c r="J10" s="2" t="inlineStr">
         <is>
-          <t>100,0%</t>
+          <t>99,27%</t>
         </is>
       </c>
       <c r="K10" s="2" t="inlineStr">
         <is>
-          <t>99,56%</t>
+          <t>100,0%</t>
         </is>
       </c>
     </row>
@@ -1015,54 +1015,54 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>97,72; 100</t>
+          <t>91,38; 98,45</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>98,08; 100</t>
+          <t>98,79; 100</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>98,14; 100</t>
+          <t>98,71; 100</t>
         </is>
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>95,13; 100,0</t>
+          <t>95,07; 99,4</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
         <is>
-          <t>98,49; 100</t>
+          <t>96,34; 99,6</t>
         </is>
       </c>
       <c r="H11" s="2" t="inlineStr">
         <is>
-          <t>96,77; 100,0</t>
+          <t>98,7; 100</t>
         </is>
       </c>
       <c r="I11" s="2" t="inlineStr">
         <is>
-          <t>96,77; 100,0</t>
+          <t>95,07; 98,92</t>
         </is>
       </c>
       <c r="J11" s="2" t="inlineStr">
         <is>
-          <t>99,15; 100</t>
+          <t>98,04; 99,96</t>
         </is>
       </c>
       <c r="K11" s="2" t="inlineStr">
         <is>
-          <t>97,59; 100,0</t>
+          <t>99,35; 100</t>
         </is>
       </c>
     </row>
     <row r="12">
       <c r="A12" s="1" t="inlineStr">
         <is>
-          <t>Capitales</t>
+          <t>Total</t>
         </is>
       </c>
       <c r="B12" s="3" t="inlineStr">
@@ -1072,12 +1072,12 @@
       </c>
       <c r="C12" s="2" t="inlineStr">
         <is>
-          <t>96,03%</t>
+          <t>97,73%</t>
         </is>
       </c>
       <c r="D12" s="2" t="inlineStr">
         <is>
-          <t>100,0%</t>
+          <t>99,83%</t>
         </is>
       </c>
       <c r="E12" s="2" t="inlineStr">
@@ -1087,32 +1087,32 @@
       </c>
       <c r="F12" s="2" t="inlineStr">
         <is>
-          <t>98,17%</t>
+          <t>98,06%</t>
         </is>
       </c>
       <c r="G12" s="2" t="inlineStr">
         <is>
-          <t>98,76%</t>
+          <t>99,59%</t>
         </is>
       </c>
       <c r="H12" s="2" t="inlineStr">
         <is>
-          <t>100,0%</t>
+          <t>99,67%</t>
         </is>
       </c>
       <c r="I12" s="2" t="inlineStr">
         <is>
-          <t>97,32%</t>
+          <t>97,92%</t>
         </is>
       </c>
       <c r="J12" s="2" t="inlineStr">
         <is>
-          <t>99,27%</t>
+          <t>99,69%</t>
         </is>
       </c>
       <c r="K12" s="2" t="inlineStr">
         <is>
-          <t>100,0%</t>
+          <t>99,82%</t>
         </is>
       </c>
     </row>
@@ -1125,169 +1125,59 @@
       </c>
       <c r="C13" s="2" t="inlineStr">
         <is>
-          <t>91,38; 98,45</t>
+          <t>95,81; 98,85</t>
         </is>
       </c>
       <c r="D13" s="2" t="inlineStr">
         <is>
-          <t>98,79; 100</t>
+          <t>99,2; 100,0</t>
         </is>
       </c>
       <c r="E13" s="2" t="inlineStr">
         <is>
-          <t>98,71; 100</t>
+          <t>99,61; 100</t>
         </is>
       </c>
       <c r="F13" s="2" t="inlineStr">
         <is>
-          <t>95,07; 99,4</t>
+          <t>96,77; 98,99</t>
         </is>
       </c>
       <c r="G13" s="2" t="inlineStr">
         <is>
-          <t>96,34; 99,6</t>
+          <t>98,9; 99,87</t>
         </is>
       </c>
       <c r="H13" s="2" t="inlineStr">
         <is>
-          <t>98,7; 100</t>
+          <t>98,96; 100,0</t>
         </is>
       </c>
       <c r="I13" s="2" t="inlineStr">
         <is>
-          <t>95,07; 98,92</t>
+          <t>96,8; 98,64</t>
         </is>
       </c>
       <c r="J13" s="2" t="inlineStr">
         <is>
-          <t>98,04; 99,96</t>
+          <t>99,16; 99,92</t>
         </is>
       </c>
       <c r="K13" s="2" t="inlineStr">
         <is>
-          <t>99,35; 100</t>
+          <t>99,41; 100,0</t>
         </is>
       </c>
     </row>
     <row r="14">
-      <c r="A14" s="1" t="inlineStr">
-        <is>
-          <t>Total</t>
-        </is>
-      </c>
-      <c r="B14" s="3" t="inlineStr">
-        <is>
-          <t>Estimación</t>
-        </is>
-      </c>
-      <c r="C14" s="2" t="inlineStr">
-        <is>
-          <t>97,73%</t>
-        </is>
-      </c>
-      <c r="D14" s="2" t="inlineStr">
-        <is>
-          <t>99,83%</t>
-        </is>
-      </c>
-      <c r="E14" s="2" t="inlineStr">
-        <is>
-          <t>100,0%</t>
-        </is>
-      </c>
-      <c r="F14" s="2" t="inlineStr">
-        <is>
-          <t>98,06%</t>
-        </is>
-      </c>
-      <c r="G14" s="2" t="inlineStr">
-        <is>
-          <t>99,59%</t>
-        </is>
-      </c>
-      <c r="H14" s="2" t="inlineStr">
-        <is>
-          <t>99,67%</t>
-        </is>
-      </c>
-      <c r="I14" s="2" t="inlineStr">
-        <is>
-          <t>97,92%</t>
-        </is>
-      </c>
-      <c r="J14" s="2" t="inlineStr">
-        <is>
-          <t>99,69%</t>
-        </is>
-      </c>
-      <c r="K14" s="2" t="inlineStr">
-        <is>
-          <t>99,82%</t>
-        </is>
-      </c>
-    </row>
-    <row r="15">
-      <c r="A15" s="1" t="n"/>
-      <c r="B15" s="3" t="inlineStr">
-        <is>
-          <t>IC 95%</t>
-        </is>
-      </c>
-      <c r="C15" s="2" t="inlineStr">
-        <is>
-          <t>95,81; 98,85</t>
-        </is>
-      </c>
-      <c r="D15" s="2" t="inlineStr">
-        <is>
-          <t>99,2; 100,0</t>
-        </is>
-      </c>
-      <c r="E15" s="2" t="inlineStr">
-        <is>
-          <t>99,61; 100</t>
-        </is>
-      </c>
-      <c r="F15" s="2" t="inlineStr">
-        <is>
-          <t>96,77; 98,99</t>
-        </is>
-      </c>
-      <c r="G15" s="2" t="inlineStr">
-        <is>
-          <t>98,9; 99,87</t>
-        </is>
-      </c>
-      <c r="H15" s="2" t="inlineStr">
-        <is>
-          <t>98,96; 100,0</t>
-        </is>
-      </c>
-      <c r="I15" s="2" t="inlineStr">
-        <is>
-          <t>96,8; 98,64</t>
-        </is>
-      </c>
-      <c r="J15" s="2" t="inlineStr">
-        <is>
-          <t>99,16; 99,92</t>
-        </is>
-      </c>
-      <c r="K15" s="2" t="inlineStr">
-        <is>
-          <t>99,41; 100,0</t>
-        </is>
-      </c>
-    </row>
-    <row r="16">
-      <c r="A16" t="inlineStr">
+      <c r="A14" t="inlineStr">
         <is>
           <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
         </is>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="10">
+  <mergeCells count="9">
     <mergeCell ref="C1:E1"/>
     <mergeCell ref="A8:A9"/>
     <mergeCell ref="A12:A13"/>
@@ -1297,7 +1187,6 @@
     <mergeCell ref="A1:B2"/>
     <mergeCell ref="A6:A7"/>
     <mergeCell ref="A10:A11"/>
-    <mergeCell ref="A14:A15"/>
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/trans_dic/P16B11-Habitat-trans_dic.xlsx
+++ b/data/trans_dic/P16B11-Habitat-trans_dic.xlsx
@@ -7,7 +7,8 @@
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Variables dicotomizadas" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Porcentajes" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Totales" sheetId="2" state="visible" r:id="rId2"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -685,12 +686,12 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>92,63; 100,0</t>
+          <t>91,82; 100,0</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>96,9; 100,0</t>
+          <t>96,29; 100,0</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
@@ -700,7 +701,7 @@
       </c>
       <c r="F5" s="2" t="inlineStr">
         <is>
-          <t>93,19; 99,24</t>
+          <t>93,16; 99,24</t>
         </is>
       </c>
       <c r="G5" s="2" t="inlineStr">
@@ -715,12 +716,12 @@
       </c>
       <c r="I5" s="2" t="inlineStr">
         <is>
-          <t>94,47; 99,14</t>
+          <t>94,6; 99,17</t>
         </is>
       </c>
       <c r="J5" s="2" t="inlineStr">
         <is>
-          <t>98,34; 100,0</t>
+          <t>98,38; 100,0</t>
         </is>
       </c>
       <c r="K5" s="2" t="inlineStr">
@@ -795,7 +796,7 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>93,16; 99,21</t>
+          <t>92,37; 99,21</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
@@ -810,7 +811,7 @@
       </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
-          <t>94,99; 99,47</t>
+          <t>94,32; 99,5</t>
         </is>
       </c>
       <c r="G7" s="2" t="inlineStr">
@@ -820,12 +821,12 @@
       </c>
       <c r="H7" s="2" t="inlineStr">
         <is>
-          <t>97,65; 100,0</t>
+          <t>97,16; 100,0</t>
         </is>
       </c>
       <c r="I7" s="2" t="inlineStr">
         <is>
-          <t>95,33; 99,08</t>
+          <t>95,46; 99,02</t>
         </is>
       </c>
       <c r="J7" s="2" t="inlineStr">
@@ -835,7 +836,7 @@
       </c>
       <c r="K7" s="2" t="inlineStr">
         <is>
-          <t>98,45; 100,0</t>
+          <t>98,44; 100,0</t>
         </is>
       </c>
     </row>
@@ -920,7 +921,7 @@
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>95,13; 100,0</t>
+          <t>95,2; 100,0</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
@@ -930,12 +931,12 @@
       </c>
       <c r="H9" s="2" t="inlineStr">
         <is>
-          <t>96,77; 100,0</t>
+          <t>96,12; 100,0</t>
         </is>
       </c>
       <c r="I9" s="2" t="inlineStr">
         <is>
-          <t>96,77; 100,0</t>
+          <t>96,69; 100,0</t>
         </is>
       </c>
       <c r="J9" s="2" t="inlineStr">
@@ -945,7 +946,7 @@
       </c>
       <c r="K9" s="2" t="inlineStr">
         <is>
-          <t>97,59; 100,0</t>
+          <t>97,39; 100,0</t>
         </is>
       </c>
     </row>
@@ -1015,7 +1016,7 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>91,38; 98,45</t>
+          <t>91,35; 98,44</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
@@ -1030,12 +1031,12 @@
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>95,07; 99,4</t>
+          <t>95,02; 99,4</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
         <is>
-          <t>96,34; 99,6</t>
+          <t>96,64; 99,6</t>
         </is>
       </c>
       <c r="H11" s="2" t="inlineStr">
@@ -1045,12 +1046,12 @@
       </c>
       <c r="I11" s="2" t="inlineStr">
         <is>
-          <t>95,07; 98,92</t>
+          <t>94,81; 98,7</t>
         </is>
       </c>
       <c r="J11" s="2" t="inlineStr">
         <is>
-          <t>98,04; 99,96</t>
+          <t>98,03; 99,76</t>
         </is>
       </c>
       <c r="K11" s="2" t="inlineStr">
@@ -1125,12 +1126,12 @@
       </c>
       <c r="C13" s="2" t="inlineStr">
         <is>
-          <t>95,81; 98,85</t>
+          <t>95,96; 98,87</t>
         </is>
       </c>
       <c r="D13" s="2" t="inlineStr">
         <is>
-          <t>99,2; 100,0</t>
+          <t>98,96; 100,0</t>
         </is>
       </c>
       <c r="E13" s="2" t="inlineStr">
@@ -1140,7 +1141,7 @@
       </c>
       <c r="F13" s="2" t="inlineStr">
         <is>
-          <t>96,77; 98,99</t>
+          <t>96,67; 98,96</t>
         </is>
       </c>
       <c r="G13" s="2" t="inlineStr">
@@ -1150,22 +1151,22 @@
       </c>
       <c r="H13" s="2" t="inlineStr">
         <is>
-          <t>98,96; 100,0</t>
+          <t>98,86; 100,0</t>
         </is>
       </c>
       <c r="I13" s="2" t="inlineStr">
         <is>
-          <t>96,8; 98,64</t>
+          <t>96,89; 98,66</t>
         </is>
       </c>
       <c r="J13" s="2" t="inlineStr">
         <is>
-          <t>99,16; 99,92</t>
+          <t>99,24; 99,92</t>
         </is>
       </c>
       <c r="K13" s="2" t="inlineStr">
         <is>
-          <t>99,41; 100,0</t>
+          <t>99,39; 100,0</t>
         </is>
       </c>
     </row>
@@ -1190,4 +1191,963 @@
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:K19"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
+      <selection pane="topRight"/>
+      <selection pane="bottomLeft"/>
+      <selection pane="bottomRight" activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <cols>
+    <col width="14" customWidth="1" min="1" max="1"/>
+    <col width="14" customWidth="1" min="2" max="2"/>
+    <col width="14" customWidth="1" min="3" max="3"/>
+    <col width="14" customWidth="1" min="4" max="4"/>
+    <col width="14" customWidth="1" min="5" max="5"/>
+    <col width="14" customWidth="1" min="6" max="6"/>
+    <col width="14" customWidth="1" min="7" max="7"/>
+    <col width="14" customWidth="1" min="8" max="8"/>
+    <col width="14" customWidth="1" min="9" max="9"/>
+    <col width="14" customWidth="1" min="10" max="10"/>
+    <col width="14" customWidth="1" min="11" max="11"/>
+  </cols>
+  <sheetData>
+    <row r="1">
+      <c r="A1" s="1" t="inlineStr">
+        <is>
+          <t>Población cuyos medicamentos para la tensión arterial  fueron recetados por el médico</t>
+        </is>
+      </c>
+      <c r="B1" s="2" t="n"/>
+      <c r="C1" s="3" t="inlineStr">
+        <is>
+          <t>Hombre</t>
+        </is>
+      </c>
+      <c r="D1" s="3" t="n"/>
+      <c r="E1" s="3" t="n"/>
+      <c r="F1" s="3" t="inlineStr">
+        <is>
+          <t>Mujer</t>
+        </is>
+      </c>
+      <c r="G1" s="3" t="n"/>
+      <c r="H1" s="3" t="n"/>
+      <c r="I1" s="3" t="inlineStr">
+        <is>
+          <t>Total</t>
+        </is>
+      </c>
+      <c r="J1" s="3" t="n"/>
+      <c r="K1" s="3" t="n"/>
+    </row>
+    <row r="2">
+      <c r="A2" s="4" t="n"/>
+      <c r="B2" s="2" t="n"/>
+      <c r="C2" s="3" t="inlineStr">
+        <is>
+          <t>2007</t>
+        </is>
+      </c>
+      <c r="D2" s="3" t="inlineStr">
+        <is>
+          <t>2012</t>
+        </is>
+      </c>
+      <c r="E2" s="3" t="inlineStr">
+        <is>
+          <t>2016</t>
+        </is>
+      </c>
+      <c r="F2" s="3" t="inlineStr">
+        <is>
+          <t>2007</t>
+        </is>
+      </c>
+      <c r="G2" s="3" t="inlineStr">
+        <is>
+          <t>2012</t>
+        </is>
+      </c>
+      <c r="H2" s="3" t="inlineStr">
+        <is>
+          <t>2016</t>
+        </is>
+      </c>
+      <c r="I2" s="3" t="inlineStr">
+        <is>
+          <t>2007</t>
+        </is>
+      </c>
+      <c r="J2" s="3" t="inlineStr">
+        <is>
+          <t>2012</t>
+        </is>
+      </c>
+      <c r="K2" s="3" t="inlineStr">
+        <is>
+          <t>2016</t>
+        </is>
+      </c>
+    </row>
+    <row r="3" hidden="1">
+      <c r="A3" s="4" t="n"/>
+      <c r="B3" s="2" t="n"/>
+      <c r="C3" s="2" t="n"/>
+      <c r="D3" s="2" t="n"/>
+      <c r="E3" s="2" t="n"/>
+      <c r="F3" s="2" t="n"/>
+      <c r="G3" s="2" t="n"/>
+      <c r="H3" s="2" t="n"/>
+      <c r="I3" s="2" t="n"/>
+      <c r="J3" s="2" t="n"/>
+      <c r="K3" s="2" t="n"/>
+    </row>
+    <row r="4">
+      <c r="A4" s="1" t="inlineStr">
+        <is>
+          <t>&lt;10.000 hab</t>
+        </is>
+      </c>
+      <c r="B4" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C4" s="2" t="inlineStr">
+        <is>
+          <t>97</t>
+        </is>
+      </c>
+      <c r="D4" s="2" t="inlineStr">
+        <is>
+          <t>123</t>
+        </is>
+      </c>
+      <c r="E4" s="2" t="inlineStr">
+        <is>
+          <t>105</t>
+        </is>
+      </c>
+      <c r="F4" s="2" t="inlineStr">
+        <is>
+          <t>113</t>
+        </is>
+      </c>
+      <c r="G4" s="2" t="inlineStr">
+        <is>
+          <t>154</t>
+        </is>
+      </c>
+      <c r="H4" s="2" t="inlineStr">
+        <is>
+          <t>120</t>
+        </is>
+      </c>
+      <c r="I4" s="2" t="inlineStr">
+        <is>
+          <t>210</t>
+        </is>
+      </c>
+      <c r="J4" s="2" t="inlineStr">
+        <is>
+          <t>277</t>
+        </is>
+      </c>
+      <c r="K4" s="2" t="inlineStr">
+        <is>
+          <t>225</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="1" t="n"/>
+      <c r="B5" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C5" s="2" t="inlineStr">
+        <is>
+          <t>96603</t>
+        </is>
+      </c>
+      <c r="D5" s="2" t="inlineStr">
+        <is>
+          <t>132086</t>
+        </is>
+      </c>
+      <c r="E5" s="2" t="inlineStr">
+        <is>
+          <t>102157</t>
+        </is>
+      </c>
+      <c r="F5" s="2" t="inlineStr">
+        <is>
+          <t>110568</t>
+        </is>
+      </c>
+      <c r="G5" s="2" t="inlineStr">
+        <is>
+          <t>165555</t>
+        </is>
+      </c>
+      <c r="H5" s="2" t="inlineStr">
+        <is>
+          <t>127328</t>
+        </is>
+      </c>
+      <c r="I5" s="2" t="inlineStr">
+        <is>
+          <t>207171</t>
+        </is>
+      </c>
+      <c r="J5" s="2" t="inlineStr">
+        <is>
+          <t>297641</t>
+        </is>
+      </c>
+      <c r="K5" s="2" t="inlineStr">
+        <is>
+          <t>229485</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="1" t="n"/>
+      <c r="B6" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C6" s="2" t="inlineStr">
+        <is>
+          <t>90618; 98689</t>
+        </is>
+      </c>
+      <c r="D6" s="2" t="inlineStr">
+        <is>
+          <t>128121; 133063</t>
+        </is>
+      </c>
+      <c r="E6" s="2" t="inlineStr">
+        <is>
+          <t>100310; 102157</t>
+        </is>
+      </c>
+      <c r="F6" s="2" t="inlineStr">
+        <is>
+          <t>105714; 112614</t>
+        </is>
+      </c>
+      <c r="G6" s="2" t="inlineStr">
+        <is>
+          <t>163506; 165555</t>
+        </is>
+      </c>
+      <c r="H6" s="2" t="inlineStr">
+        <is>
+          <t>125310; 127328</t>
+        </is>
+      </c>
+      <c r="I6" s="2" t="inlineStr">
+        <is>
+          <t>200700; 210402</t>
+        </is>
+      </c>
+      <c r="J6" s="2" t="inlineStr">
+        <is>
+          <t>293773; 298618</t>
+        </is>
+      </c>
+      <c r="K6" s="2" t="inlineStr">
+        <is>
+          <t>227536; 229485</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="1" t="inlineStr">
+        <is>
+          <t>10-50.000 hab</t>
+        </is>
+      </c>
+      <c r="B7" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C7" s="2" t="inlineStr">
+        <is>
+          <t>115</t>
+        </is>
+      </c>
+      <c r="D7" s="2" t="inlineStr">
+        <is>
+          <t>137</t>
+        </is>
+      </c>
+      <c r="E7" s="2" t="inlineStr">
+        <is>
+          <t>140</t>
+        </is>
+      </c>
+      <c r="F7" s="2" t="inlineStr">
+        <is>
+          <t>156</t>
+        </is>
+      </c>
+      <c r="G7" s="2" t="inlineStr">
+        <is>
+          <t>175</t>
+        </is>
+      </c>
+      <c r="H7" s="2" t="inlineStr">
+        <is>
+          <t>140</t>
+        </is>
+      </c>
+      <c r="I7" s="2" t="inlineStr">
+        <is>
+          <t>271</t>
+        </is>
+      </c>
+      <c r="J7" s="2" t="inlineStr">
+        <is>
+          <t>312</t>
+        </is>
+      </c>
+      <c r="K7" s="2" t="inlineStr">
+        <is>
+          <t>280</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="1" t="n"/>
+      <c r="B8" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C8" s="2" t="inlineStr">
+        <is>
+          <t>118330</t>
+        </is>
+      </c>
+      <c r="D8" s="2" t="inlineStr">
+        <is>
+          <t>150926</t>
+        </is>
+      </c>
+      <c r="E8" s="2" t="inlineStr">
+        <is>
+          <t>144413</t>
+        </is>
+      </c>
+      <c r="F8" s="2" t="inlineStr">
+        <is>
+          <t>167407</t>
+        </is>
+      </c>
+      <c r="G8" s="2" t="inlineStr">
+        <is>
+          <t>190951</t>
+        </is>
+      </c>
+      <c r="H8" s="2" t="inlineStr">
+        <is>
+          <t>170606</t>
+        </is>
+      </c>
+      <c r="I8" s="2" t="inlineStr">
+        <is>
+          <t>285737</t>
+        </is>
+      </c>
+      <c r="J8" s="2" t="inlineStr">
+        <is>
+          <t>341876</t>
+        </is>
+      </c>
+      <c r="K8" s="2" t="inlineStr">
+        <is>
+          <t>315019</t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="1" t="n"/>
+      <c r="B9" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C9" s="2" t="inlineStr">
+        <is>
+          <t>112137; 120434</t>
+        </is>
+      </c>
+      <c r="D9" s="2" t="inlineStr">
+        <is>
+          <t>148829; 150926</t>
+        </is>
+      </c>
+      <c r="E9" s="2" t="inlineStr">
+        <is>
+          <t>142449; 144413</t>
+        </is>
+      </c>
+      <c r="F9" s="2" t="inlineStr">
+        <is>
+          <t>160921; 169767</t>
+        </is>
+      </c>
+      <c r="G9" s="2" t="inlineStr">
+        <is>
+          <t>188870; 190951</t>
+        </is>
+      </c>
+      <c r="H9" s="2" t="inlineStr">
+        <is>
+          <t>166709; 171579</t>
+        </is>
+      </c>
+      <c r="I9" s="2" t="inlineStr">
+        <is>
+          <t>278757; 289149</t>
+        </is>
+      </c>
+      <c r="J9" s="2" t="inlineStr">
+        <is>
+          <t>339779; 341876</t>
+        </is>
+      </c>
+      <c r="K9" s="2" t="inlineStr">
+        <is>
+          <t>311070; 315992</t>
+        </is>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="1" t="inlineStr">
+        <is>
+          <t>&gt;50.000 hab</t>
+        </is>
+      </c>
+      <c r="B10" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C10" s="2" t="inlineStr">
+        <is>
+          <t>83</t>
+        </is>
+      </c>
+      <c r="D10" s="2" t="inlineStr">
+        <is>
+          <t>99</t>
+        </is>
+      </c>
+      <c r="E10" s="2" t="inlineStr">
+        <is>
+          <t>102</t>
+        </is>
+      </c>
+      <c r="F10" s="2" t="inlineStr">
+        <is>
+          <t>113</t>
+        </is>
+      </c>
+      <c r="G10" s="2" t="inlineStr">
+        <is>
+          <t>126</t>
+        </is>
+      </c>
+      <c r="H10" s="2" t="inlineStr">
+        <is>
+          <t>117</t>
+        </is>
+      </c>
+      <c r="I10" s="2" t="inlineStr">
+        <is>
+          <t>196</t>
+        </is>
+      </c>
+      <c r="J10" s="2" t="inlineStr">
+        <is>
+          <t>225</t>
+        </is>
+      </c>
+      <c r="K10" s="2" t="inlineStr">
+        <is>
+          <t>219</t>
+        </is>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="1" t="n"/>
+      <c r="B11" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C11" s="2" t="inlineStr">
+        <is>
+          <t>86185</t>
+        </is>
+      </c>
+      <c r="D11" s="2" t="inlineStr">
+        <is>
+          <t>111802</t>
+        </is>
+      </c>
+      <c r="E11" s="2" t="inlineStr">
+        <is>
+          <t>108472</t>
+        </is>
+      </c>
+      <c r="F11" s="2" t="inlineStr">
+        <is>
+          <t>113385</t>
+        </is>
+      </c>
+      <c r="G11" s="2" t="inlineStr">
+        <is>
+          <t>136985</t>
+        </is>
+      </c>
+      <c r="H11" s="2" t="inlineStr">
+        <is>
+          <t>138255</t>
+        </is>
+      </c>
+      <c r="I11" s="2" t="inlineStr">
+        <is>
+          <t>199570</t>
+        </is>
+      </c>
+      <c r="J11" s="2" t="inlineStr">
+        <is>
+          <t>248787</t>
+        </is>
+      </c>
+      <c r="K11" s="2" t="inlineStr">
+        <is>
+          <t>246726</t>
+        </is>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="1" t="n"/>
+      <c r="B12" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C12" s="2" t="inlineStr">
+        <is>
+          <t>84219; 86185</t>
+        </is>
+      </c>
+      <c r="D12" s="2" t="inlineStr">
+        <is>
+          <t>109659; 111802</t>
+        </is>
+      </c>
+      <c r="E12" s="2" t="inlineStr">
+        <is>
+          <t>106453; 108472</t>
+        </is>
+      </c>
+      <c r="F12" s="2" t="inlineStr">
+        <is>
+          <t>109679; 115214</t>
+        </is>
+      </c>
+      <c r="G12" s="2" t="inlineStr">
+        <is>
+          <t>134917; 136985</t>
+        </is>
+      </c>
+      <c r="H12" s="2" t="inlineStr">
+        <is>
+          <t>133937; 139344</t>
+        </is>
+      </c>
+      <c r="I12" s="2" t="inlineStr">
+        <is>
+          <t>194741; 201399</t>
+        </is>
+      </c>
+      <c r="J12" s="2" t="inlineStr">
+        <is>
+          <t>246675; 248787</t>
+        </is>
+      </c>
+      <c r="K12" s="2" t="inlineStr">
+        <is>
+          <t>241344; 247815</t>
+        </is>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="1" t="inlineStr">
+        <is>
+          <t>Capitales</t>
+        </is>
+      </c>
+      <c r="B13" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C13" s="2" t="inlineStr">
+        <is>
+          <t>114</t>
+        </is>
+      </c>
+      <c r="D13" s="2" t="inlineStr">
+        <is>
+          <t>157</t>
+        </is>
+      </c>
+      <c r="E13" s="2" t="inlineStr">
+        <is>
+          <t>148</t>
+        </is>
+      </c>
+      <c r="F13" s="2" t="inlineStr">
+        <is>
+          <t>153</t>
+        </is>
+      </c>
+      <c r="G13" s="2" t="inlineStr">
+        <is>
+          <t>227</t>
+        </is>
+      </c>
+      <c r="H13" s="2" t="inlineStr">
+        <is>
+          <t>147</t>
+        </is>
+      </c>
+      <c r="I13" s="2" t="inlineStr">
+        <is>
+          <t>267</t>
+        </is>
+      </c>
+      <c r="J13" s="2" t="inlineStr">
+        <is>
+          <t>384</t>
+        </is>
+      </c>
+      <c r="K13" s="2" t="inlineStr">
+        <is>
+          <t>295</t>
+        </is>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="1" t="n"/>
+      <c r="B14" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C14" s="2" t="inlineStr">
+        <is>
+          <t>102214</t>
+        </is>
+      </c>
+      <c r="D14" s="2" t="inlineStr">
+        <is>
+          <t>171697</t>
+        </is>
+      </c>
+      <c r="E14" s="2" t="inlineStr">
+        <is>
+          <t>143187</t>
+        </is>
+      </c>
+      <c r="F14" s="2" t="inlineStr">
+        <is>
+          <t>159072</t>
+        </is>
+      </c>
+      <c r="G14" s="2" t="inlineStr">
+        <is>
+          <t>241764</t>
+        </is>
+      </c>
+      <c r="H14" s="2" t="inlineStr">
+        <is>
+          <t>178674</t>
+        </is>
+      </c>
+      <c r="I14" s="2" t="inlineStr">
+        <is>
+          <t>261286</t>
+        </is>
+      </c>
+      <c r="J14" s="2" t="inlineStr">
+        <is>
+          <t>413461</t>
+        </is>
+      </c>
+      <c r="K14" s="2" t="inlineStr">
+        <is>
+          <t>321861</t>
+        </is>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="1" t="n"/>
+      <c r="B15" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C15" s="2" t="inlineStr">
+        <is>
+          <t>97238; 104779</t>
+        </is>
+      </c>
+      <c r="D15" s="2" t="inlineStr">
+        <is>
+          <t>169613; 171697</t>
+        </is>
+      </c>
+      <c r="E15" s="2" t="inlineStr">
+        <is>
+          <t>141344; 143187</t>
+        </is>
+      </c>
+      <c r="F15" s="2" t="inlineStr">
+        <is>
+          <t>153979; 161072</t>
+        </is>
+      </c>
+      <c r="G15" s="2" t="inlineStr">
+        <is>
+          <t>236578; 243813</t>
+        </is>
+      </c>
+      <c r="H15" s="2" t="inlineStr">
+        <is>
+          <t>176359; 178674</t>
+        </is>
+      </c>
+      <c r="I15" s="2" t="inlineStr">
+        <is>
+          <t>254549; 264990</t>
+        </is>
+      </c>
+      <c r="J15" s="2" t="inlineStr">
+        <is>
+          <t>408290; 415510</t>
+        </is>
+      </c>
+      <c r="K15" s="2" t="inlineStr">
+        <is>
+          <t>319774; 321861</t>
+        </is>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="1" t="inlineStr">
+        <is>
+          <t>Total</t>
+        </is>
+      </c>
+      <c r="B16" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C16" s="2" t="inlineStr">
+        <is>
+          <t>409</t>
+        </is>
+      </c>
+      <c r="D16" s="2" t="inlineStr">
+        <is>
+          <t>516</t>
+        </is>
+      </c>
+      <c r="E16" s="2" t="inlineStr">
+        <is>
+          <t>495</t>
+        </is>
+      </c>
+      <c r="F16" s="2" t="inlineStr">
+        <is>
+          <t>535</t>
+        </is>
+      </c>
+      <c r="G16" s="2" t="inlineStr">
+        <is>
+          <t>682</t>
+        </is>
+      </c>
+      <c r="H16" s="2" t="inlineStr">
+        <is>
+          <t>524</t>
+        </is>
+      </c>
+      <c r="I16" s="2" t="inlineStr">
+        <is>
+          <t>944</t>
+        </is>
+      </c>
+      <c r="J16" s="2" t="inlineStr">
+        <is>
+          <t>1198</t>
+        </is>
+      </c>
+      <c r="K16" s="2" t="inlineStr">
+        <is>
+          <t>1019</t>
+        </is>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="1" t="n"/>
+      <c r="B17" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C17" s="2" t="inlineStr">
+        <is>
+          <t>403333</t>
+        </is>
+      </c>
+      <c r="D17" s="2" t="inlineStr">
+        <is>
+          <t>566511</t>
+        </is>
+      </c>
+      <c r="E17" s="2" t="inlineStr">
+        <is>
+          <t>498229</t>
+        </is>
+      </c>
+      <c r="F17" s="2" t="inlineStr">
+        <is>
+          <t>550433</t>
+        </is>
+      </c>
+      <c r="G17" s="2" t="inlineStr">
+        <is>
+          <t>735255</t>
+        </is>
+      </c>
+      <c r="H17" s="2" t="inlineStr">
+        <is>
+          <t>614864</t>
+        </is>
+      </c>
+      <c r="I17" s="2" t="inlineStr">
+        <is>
+          <t>953765</t>
+        </is>
+      </c>
+      <c r="J17" s="2" t="inlineStr">
+        <is>
+          <t>1301764</t>
+        </is>
+      </c>
+      <c r="K17" s="2" t="inlineStr">
+        <is>
+          <t>1113092</t>
+        </is>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="1" t="n"/>
+      <c r="B18" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C18" s="2" t="inlineStr">
+        <is>
+          <t>396056; 408064</t>
+        </is>
+      </c>
+      <c r="D18" s="2" t="inlineStr">
+        <is>
+          <t>561596; 567488</t>
+        </is>
+      </c>
+      <c r="E18" s="2" t="inlineStr">
+        <is>
+          <t>496300; 498229</t>
+        </is>
+      </c>
+      <c r="F18" s="2" t="inlineStr">
+        <is>
+          <t>542661; 555510</t>
+        </is>
+      </c>
+      <c r="G18" s="2" t="inlineStr">
+        <is>
+          <t>730171; 737300</t>
+        </is>
+      </c>
+      <c r="H18" s="2" t="inlineStr">
+        <is>
+          <t>609914; 616926</t>
+        </is>
+      </c>
+      <c r="I18" s="2" t="inlineStr">
+        <is>
+          <t>943786; 961040</t>
+        </is>
+      </c>
+      <c r="J18" s="2" t="inlineStr">
+        <is>
+          <t>1295800; 1304772</t>
+        </is>
+      </c>
+      <c r="K18" s="2" t="inlineStr">
+        <is>
+          <t>1108323; 1115154</t>
+        </is>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" t="inlineStr">
+        <is>
+          <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
+        </is>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="9">
+    <mergeCell ref="C1:E1"/>
+    <mergeCell ref="A7:A9"/>
+    <mergeCell ref="A4:A6"/>
+    <mergeCell ref="A16:A18"/>
+    <mergeCell ref="A10:A12"/>
+    <mergeCell ref="F1:H1"/>
+    <mergeCell ref="I1:K1"/>
+    <mergeCell ref="A1:B2"/>
+    <mergeCell ref="A13:A15"/>
+  </mergeCells>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
 </file>